--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1122,7 +1122,7 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
@@ -1330,7 +1330,7 @@
         <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
+++ b/main/ig/StructureDefinition-FrStrengthCodeableConcept.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
